--- a/paper/02_BCD/results.xlsx
+++ b/paper/02_BCD/results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,6 +412,11 @@
           <t>recall</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -429,7 +434,7 @@
         <v>0.9736842105263158</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9984268191935729</v>
+        <v>0.998426819193573</v>
       </c>
       <c r="F2" t="n">
         <v>0.9977621483375959</v>
@@ -446,6 +451,9 @@
       <c r="J2" t="n">
         <v>0.9705882352941176</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.9777777777777777</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -463,10 +471,10 @@
         <v>0.9649122807017544</v>
       </c>
       <c r="E3" t="n">
-        <v>0.99880875350238</v>
+        <v>0.9986223870560249</v>
       </c>
       <c r="F3" t="n">
-        <v>0.998015873015873</v>
+        <v>0.9976851851851851</v>
       </c>
       <c r="G3" t="n">
         <v>0.9583333333333334</v>
@@ -479,6 +487,9 @@
       </c>
       <c r="J3" t="n">
         <v>0.9583333333333334</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.971830985915493</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +508,10 @@
         <v>0.9824561403508771</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9879338849701924</v>
+        <v>0.9952612175954907</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9850746268656717</v>
+        <v>0.9936487773896475</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -513,6 +524,9 @@
       </c>
       <c r="J4" t="n">
         <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9852941176470589</v>
       </c>
     </row>
     <row r="5">
@@ -528,25 +542,28 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9872888391942722</v>
+        <v>0.981480748429609</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9836956521739131</v>
+        <v>0.9808184143222507</v>
       </c>
       <c r="G5" t="n">
         <v>0.9852941176470589</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9710144927536232</v>
+        <v>0.9571428571428572</v>
       </c>
       <c r="J5" t="n">
         <v>0.9852941176470589</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9710144927536232</v>
       </c>
     </row>
     <row r="6">
@@ -565,7 +582,7 @@
         <v>0.9646017699115044</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9991124810293576</v>
+        <v>0.999119873708425</v>
       </c>
       <c r="F6" t="n">
         <v>0.9976396538158929</v>
@@ -581,6 +598,9 @@
       </c>
       <c r="J6" t="n">
         <v>0.9878048780487805</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9759036144578312</v>
       </c>
     </row>
     <row r="7">
@@ -599,10 +619,10 @@
         <v>0.956140350877193</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9945785170378352</v>
+        <v>0.9946907978218749</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9908118944203141</v>
+        <v>0.9909789508853993</v>
       </c>
       <c r="G7" t="n">
         <v>0.9726027397260274</v>
@@ -615,6 +635,9 @@
       </c>
       <c r="J7" t="n">
         <v>0.9726027397260274</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9659863945578231</v>
       </c>
     </row>
     <row r="8">
@@ -650,6 +673,9 @@
       <c r="J8" t="n">
         <v>0.9857142857142858</v>
       </c>
+      <c r="K8" t="n">
+        <v>0.9928057553956835</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -667,10 +693,10 @@
         <v>0.9736842105263158</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9982490662378039</v>
+        <v>0.9984331017373508</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9965373961218837</v>
+        <v>0.9968836565096953</v>
       </c>
       <c r="G9" t="n">
         <v>0.9868421052631579</v>
@@ -683,6 +709,9 @@
       </c>
       <c r="J9" t="n">
         <v>0.9868421052631579</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="10">
@@ -718,6 +747,9 @@
       <c r="J10" t="n">
         <v>0.9850746268656716</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.9850746268656716</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -735,10 +767,10 @@
         <v>0.9557522123893806</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9875080235352856</v>
+        <v>0.9822178910006147</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9815560026827633</v>
+        <v>0.9785378940308518</v>
       </c>
       <c r="G11" t="n">
         <v>0.9577464788732394</v>
@@ -751,6 +783,9 @@
       </c>
       <c r="J11" t="n">
         <v>0.9577464788732394</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9645390070921985</v>
       </c>
     </row>
     <row r="12">
@@ -786,6 +821,9 @@
       <c r="J12" t="n">
         <v>1</v>
       </c>
+      <c r="K12" t="n">
+        <v>0.9929078014184397</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -800,25 +838,28 @@
         <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9966499059574296</v>
+        <v>0.9968812043426158</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9952365830422357</v>
+        <v>0.9955541441727532</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9402985074626866</v>
+        <v>0.9552238805970149</v>
       </c>
       <c r="H13" t="n">
         <v>0.9574468085106383</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9692307692307692</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9402985074626866</v>
+        <v>0.9552238805970149</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9624060150375939</v>
       </c>
     </row>
     <row r="14">
@@ -854,6 +895,9 @@
       <c r="J14" t="n">
         <v>1</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.9787234042553191</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -871,10 +915,10 @@
         <v>0.9824561403508771</v>
       </c>
       <c r="E15" t="n">
-        <v>0.990069912672075</v>
+        <v>0.9866090335943347</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9842735042735042</v>
+        <v>0.9817094017094017</v>
       </c>
       <c r="G15" t="n">
         <v>0.9866666666666667</v>
@@ -887,6 +931,9 @@
       </c>
       <c r="J15" t="n">
         <v>0.9866666666666667</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9866666666666668</v>
       </c>
     </row>
     <row r="16">
@@ -922,6 +969,9 @@
       <c r="J16" t="n">
         <v>0.9868421052631579</v>
       </c>
+      <c r="K16" t="n">
+        <v>0.9933774834437086</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -939,10 +989,10 @@
         <v>0.9736842105263158</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9984085855668086</v>
+        <v>0.9985952317597557</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9968836565096953</v>
+        <v>0.9972299168975071</v>
       </c>
       <c r="G17" t="n">
         <v>0.9868421052631579</v>
@@ -955,6 +1005,9 @@
       </c>
       <c r="J17" t="n">
         <v>0.9868421052631579</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="18">
@@ -973,10 +1026,10 @@
         <v>0.9473684210526315</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9877736564246404</v>
+        <v>0.9890823152321669</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9802631578947368</v>
+        <v>0.9833795013850416</v>
       </c>
       <c r="G18" t="n">
         <v>0.9605263157894737</v>
@@ -988,6 +1041,9 @@
         <v>0.9605263157894737</v>
       </c>
       <c r="J18" t="n">
+        <v>0.9605263157894737</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.9605263157894737</v>
       </c>
     </row>
@@ -1007,10 +1063,10 @@
         <v>0.956140350877193</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9967844607930031</v>
+        <v>0.9969808472816126</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9937673130193906</v>
+        <v>0.9941135734072022</v>
       </c>
       <c r="G19" t="n">
         <v>0.9736842105263158</v>
@@ -1023,6 +1079,9 @@
       </c>
       <c r="J19" t="n">
         <v>0.9736842105263158</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9673202614379085</v>
       </c>
     </row>
     <row r="20">
@@ -1041,7 +1100,7 @@
         <v>0.9824561403508771</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9993651568161428</v>
+        <v>0.9993651568161427</v>
       </c>
       <c r="F20" t="n">
         <v>0.9990338164251208</v>
@@ -1056,6 +1115,9 @@
         <v>0.9855072463768116</v>
       </c>
       <c r="J20" t="n">
+        <v>0.9855072463768116</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.9855072463768116</v>
       </c>
     </row>
@@ -1092,6 +1154,9 @@
       <c r="J21" t="n">
         <v>0.9833333333333333</v>
       </c>
+      <c r="K21" t="n">
+        <v>0.9915966386554621</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1109,10 +1174,10 @@
         <v>0.9736842105263158</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9993058891347986</v>
+        <v>0.9995408104634699</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9990530303030303</v>
+        <v>0.9993686868686869</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1125,6 +1190,9 @@
       </c>
       <c r="J22" t="n">
         <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9777777777777777</v>
       </c>
     </row>
     <row r="23">
@@ -1143,10 +1211,10 @@
         <v>0.9824561403508771</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9967424892617103</v>
+        <v>0.9968562682949808</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9948743386243386</v>
+        <v>0.9950396825396824</v>
       </c>
       <c r="G23" t="n">
         <v>0.9861111111111112</v>
@@ -1158,6 +1226,9 @@
         <v>0.9861111111111112</v>
       </c>
       <c r="J23" t="n">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.9861111111111112</v>
       </c>
     </row>
@@ -1174,25 +1245,28 @@
         <v>128</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9893386931493824</v>
+        <v>0.9872761881985779</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9756827534605312</v>
+        <v>0.9736251402918069</v>
       </c>
       <c r="G24" t="n">
         <v>0.9753086419753086</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9518072289156626</v>
+        <v>0.9404761904761905</v>
       </c>
       <c r="J24" t="n">
         <v>0.9753086419753086</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9575757575757574</v>
       </c>
     </row>
     <row r="25">
@@ -1211,7 +1285,7 @@
         <v>0.9473684210526315</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9942534236406303</v>
+        <v>0.9942535161407229</v>
       </c>
       <c r="F25" t="n">
         <v>0.9927786499215071</v>
@@ -1226,6 +1300,9 @@
         <v>0.9538461538461539</v>
       </c>
       <c r="J25" t="n">
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.9538461538461539</v>
       </c>
     </row>
@@ -1261,6 +1338,9 @@
       </c>
       <c r="J26" t="n">
         <v>0.9863013698630136</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9931034482758621</v>
       </c>
     </row>
   </sheetData>
